--- a/so on/controller.xlsx
+++ b/so on/controller.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rea21\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2016A5D-6C1D-42B2-B85E-BC48E0B15FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{FDD21D3A-A260-41BB-B510-F92819ACD1D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,125 +25,337 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이디중복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라가 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C to S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_check(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(server.c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S(loginDB.c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true or false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S to C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공혹은 오류메세지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라가처리 flag 활용 or 버튼 숨기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id, pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login(id,pass)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(true,false)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 처리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터정보구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정정보구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCharInfo(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅍ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디중복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라가 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C to S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_check(id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S(server.c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S(loginDB.c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true or false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S to C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공혹은 오류메세지 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라가처리 flag 활용 or 버튼 숨기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id, pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login(id,pass)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id(true,false)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_code</t>
+    <t>캐릭터정보가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 정보대로 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 캐릭터로 촌장집에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc의 pk값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 npc 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit(damage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당대상 현재체력 - 리턴값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(공-방)수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치가 0이하일때에는 0으로 취급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피격은 공격의 반대개념</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item(something)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경수치반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP가 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촌장의 집에서 부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스폰위치 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정 pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 hp회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터패널티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스왑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장비창 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +380,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -188,8 +474,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -207,6 +523,387 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5890260" y="1866900"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="2529840"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="2529840"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="2971800"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 화살표 연결선 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="3192780"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="5181600"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 화살표 연결선 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="5623560"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 화살표 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6469380" y="5844540"/>
+          <a:ext cx="1150620" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -252,7 +949,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -304,7 +1001,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -498,150 +1195,450 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7AA960-C695-45B4-8D50-FB75786E4D2D}">
-  <dimension ref="B3:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.4140625" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="7" max="8" width="15.296875" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.296875" customWidth="1"/>
+    <col min="11" max="11" width="41.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
+    <row r="7" spans="2:11">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="E40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E21" t="s">
+      <c r="H40" t="s">
         <v>25</v>
       </c>
-      <c r="H21" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="E41" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.45">
-      <c r="E22" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>